--- a/DummyData/Research_fields.xlsx
+++ b/DummyData/Research_fields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11505"/>
+    <workbookView windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>Research_field</t>
+    <t>research_field</t>
   </si>
   <si>
     <t>field_id</t>
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,14 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -161,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,23 +174,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +191,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +205,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -228,6 +236,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -235,46 +251,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,21 +499,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -524,35 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,7 +532,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,142 +585,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,9 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1071,10 +1068,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11.3" customWidth="1"/>
@@ -1100,13 +1097,13 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>99001</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1114,13 +1111,13 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>99002</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1128,13 +1125,13 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>99003</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1142,13 +1139,13 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>99004</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1156,13 +1153,13 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>99005</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1170,13 +1167,13 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>99006</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1184,13 +1181,13 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>99007</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1198,13 +1195,13 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>99008</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1212,13 +1209,13 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>99009</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1226,13 +1223,13 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>99010</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1240,13 +1237,13 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>99011</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1254,19 +1251,19 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>99012</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
